--- a/biology/Botanique/Otard/Otard.xlsx
+++ b/biology/Botanique/Otard/Otard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Otard est une maison de cognac fondée en 1795 par Jean-Baptiste Antoine Otard, qui a acheté le château de Cognac en 1795 pour y installer sa société.
@@ -512,11 +524,13 @@
           <t>Otard</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marque Otard est exploitée par la société Château de Cognac sous le nom commercial "Château Royal de Cognac" et "Baron Otard"[1].
-Vendu au groupe italien Martini &amp; Rossi en 1991, Otard fait aujourd'hui partie du portefeuille de marques de la société américaine Bacardí comme Ussé[2].
-Chateau de Cognac est une filiale de Bacardi France[3] elle même filiale de Bacardi Global Brands Limited (BGB), entreprise qui a son siège social aux Bermudes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque Otard est exploitée par la société Château de Cognac sous le nom commercial "Château Royal de Cognac" et "Baron Otard".
+Vendu au groupe italien Martini &amp; Rossi en 1991, Otard fait aujourd'hui partie du portefeuille de marques de la société américaine Bacardí comme Ussé.
+Chateau de Cognac est une filiale de Bacardi France elle même filiale de Bacardi Global Brands Limited (BGB), entreprise qui a son siège social aux Bermudes.
 </t>
         </is>
       </c>
